--- a/Dados Reais/Matriz dos Moldes.xlsx
+++ b/Dados Reais/Matriz dos Moldes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr codeName="EsteLivro" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\OneDrive\Ambiente de Trabalho\GreenShoes\LotSizing Problem\Dados Reais\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69ABBFFB-2B28-467D-B5C1-ED2A35690807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C8B259-97DD-418A-8995-21FEB4C8EA75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10680" yWindow="1815" windowWidth="21600" windowHeight="11385" xr2:uid="{1C5AF18C-5C7F-43DE-9884-C0C59AEF9F6D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1C5AF18C-5C7F-43DE-9884-C0C59AEF9F6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Moldes" sheetId="1" r:id="rId1"/>
@@ -376,7 +376,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -386,6 +386,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,12 +417,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -735,10 +742,15 @@
   <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12:E13"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -1079,28 +1091,28 @@
       </c>
     </row>
     <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="4">
-        <v>1</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="4">
-        <v>0</v>
-      </c>
-      <c r="E14" s="4">
+      <c r="B14" s="5">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0</v>
+      </c>
+      <c r="E14" s="5">
         <v>44</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="4">
+      <c r="F14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="5">
         <v>17</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2987,7 +2999,7 @@
         <v>10</v>
       </c>
       <c r="D87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E87">
         <v>37</v>
@@ -3013,7 +3025,7 @@
         <v>10</v>
       </c>
       <c r="D88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E88">
         <v>38</v>
@@ -3039,7 +3051,7 @@
         <v>10</v>
       </c>
       <c r="D89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E89">
         <v>39</v>
@@ -3065,7 +3077,7 @@
         <v>10</v>
       </c>
       <c r="D90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E90">
         <v>40</v>
@@ -3091,7 +3103,7 @@
         <v>10</v>
       </c>
       <c r="D91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E91">
         <v>41</v>
@@ -3117,7 +3129,7 @@
         <v>10</v>
       </c>
       <c r="D92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E92">
         <v>42</v>
@@ -3143,7 +3155,7 @@
         <v>10</v>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E93">
         <v>43</v>
@@ -3169,7 +3181,7 @@
         <v>10</v>
       </c>
       <c r="D94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E94">
         <v>44</v>
@@ -3195,7 +3207,7 @@
         <v>10</v>
       </c>
       <c r="D95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E95">
         <v>45</v>
@@ -3221,7 +3233,7 @@
         <v>10</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E96">
         <v>46</v>
@@ -3247,7 +3259,7 @@
         <v>10</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E97">
         <v>47</v>
@@ -3273,7 +3285,7 @@
         <v>10</v>
       </c>
       <c r="D98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E98">
         <v>48</v>
@@ -3352,7 +3364,7 @@
   <dimension ref="A1:F84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
